--- a/src/Products.xlsx
+++ b/src/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13222\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13222\Desktop\ConsoleShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A90DB-133B-462A-AC61-B8B59634F732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06CBE2E-D90B-4762-9780-C57D5F216E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4884" yWindow="0" windowWidth="12000" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
